--- a/medicine/Mort/Peine_de_mort_en_Caroline_du_Nord/Peine_de_mort_en_Caroline_du_Nord.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Caroline_du_Nord/Peine_de_mort_en_Caroline_du_Nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Caroline du nord a rétabli la peine de mort en 1977, les exécutions ont repris en 1984, année où eut lieu également l'exécution d'une femme dans cet État. Par le passé, l'État a fait usage de la pendaison jusqu'en 1910, puis utilisa la chaise électrique jusqu'en 1938, de la chambre à gaz de 1936 à 1998, date à laquelle elle opta pour l'injection létale[1] qui demeure contrairement à de nombreux États la seule méthode prévue. La Caroline du Nord a également gagné en notoriété en exécutant Kenneth Lee Boyd en 2005, le millième condamné à mort exécuté aux États-Unis depuis le rétablissement de la peine de mort en 1976.
-Le gouverneur a le droit exclusif de grâce. Seize témoins y assistent dont des journalistes et des membres de la famille de la victime et des médecins. Les exécutions ont d’ailleurs été suspendues en 2007 car l'ordre des médecins de l'État a interdit à ses pairs de participer ou même d'assister en tant que médecin à une exécution, plongeant ainsi l'État dans un moratoire[2].
-En Caroline du Nord, les noirs représentent 60 % des condamnés (contre 42 % à l'échelle nationale), le gouverneur Beverly Perdue a signé une loi le 11 mai 2009 autorisant les juges à annuler une condamnation à mort ou à interdire de requérir la peine de mort sur la base statistique montrant une disparité raciale[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Caroline du nord a rétabli la peine de mort en 1977, les exécutions ont repris en 1984, année où eut lieu également l'exécution d'une femme dans cet État. Par le passé, l'État a fait usage de la pendaison jusqu'en 1910, puis utilisa la chaise électrique jusqu'en 1938, de la chambre à gaz de 1936 à 1998, date à laquelle elle opta pour l'injection létale qui demeure contrairement à de nombreux États la seule méthode prévue. La Caroline du Nord a également gagné en notoriété en exécutant Kenneth Lee Boyd en 2005, le millième condamné à mort exécuté aux États-Unis depuis le rétablissement de la peine de mort en 1976.
+Le gouverneur a le droit exclusif de grâce. Seize témoins y assistent dont des journalistes et des membres de la famille de la victime et des médecins. Les exécutions ont d’ailleurs été suspendues en 2007 car l'ordre des médecins de l'État a interdit à ses pairs de participer ou même d'assister en tant que médecin à une exécution, plongeant ainsi l'État dans un moratoire.
+En Caroline du Nord, les noirs représentent 60 % des condamnés (contre 42 % à l'échelle nationale), le gouverneur Beverly Perdue a signé une loi le 11 mai 2009 autorisant les juges à annuler une condamnation à mort ou à interdire de requérir la peine de mort sur la base statistique montrant une disparité raciale.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Exécutions depuis 1977</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Raleigh à la Central Prison.
-En mars 2020 le couloir de la mort de Caroline du Nord compte 143 condamnés dont trois femmes[5]. Depuis 1977 14 condamnés ont été graciés en Caroline du Nord[6],[7].
+En mars 2020 le couloir de la mort de Caroline du Nord compte 143 condamnés dont trois femmes. Depuis 1977 14 condamnés ont été graciés en Caroline du Nord,.
 </t>
         </is>
       </c>
